--- a/Dash/grafico_lives_estilos_mais_escutados_data2.xlsx
+++ b/Dash/grafico_lives_estilos_mais_escutados_data2.xlsx
@@ -70,127 +70,127 @@
     <t xml:space="preserve">Bruno e Marrone</t>
   </si>
   <si>
+    <t xml:space="preserve">Péricles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mano Walter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ Henrique de Ferraz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrique e Juliano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorriso Maroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wesley Safadão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Sampaio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilberto Gil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simone e Simaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thiaguinho</t>
   </si>
   <si>
-    <t xml:space="preserve">Mano Walter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ Henrique de Ferraz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henrique e Juliano</t>
+    <t xml:space="preserve">Xand Avião</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milton Nascimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zé Neto e Cristiano</t>
   </si>
   <si>
     <t xml:space="preserve">Ferrugem</t>
   </si>
   <si>
-    <t xml:space="preserve">Wesley Safadão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Sampaio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilberto Gil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simone e Simaria</t>
+    <t xml:space="preserve">Mastruz com Leite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC Don Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Vercillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge e Mateus</t>
   </si>
   <si>
     <t xml:space="preserve">Xande de Pilares</t>
   </si>
   <si>
-    <t xml:space="preserve">Xand Avião</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dennis DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milton Nascimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zé Neto e Cristiano</t>
+    <t xml:space="preserve">Ivete Sangalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonde das Maravilhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Calcanhotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maiara e Maraísa</t>
   </si>
   <si>
     <t xml:space="preserve">Ludmilla</t>
   </si>
   <si>
-    <t xml:space="preserve">Mastruz com Leite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC Don Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Vercillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge e Mateus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Péricles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivete Sangalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonde das Maravilhas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana Calcanhotto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maiara e Maraísa</t>
+    <t xml:space="preserve">Zé Cantor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toquinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos &amp; Belutti</t>
   </si>
   <si>
     <t xml:space="preserve">Grupo Revelação</t>
   </si>
   <si>
-    <t xml:space="preserve">Zé Cantor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC WM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toquinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcos &amp; Belutti</t>
+    <t xml:space="preserve">Bell Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raimunndo Fagner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gusttavo Lima</t>
   </si>
   <si>
     <t xml:space="preserve">Turma do Pagode</t>
   </si>
   <si>
-    <t xml:space="preserve">Bell Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raimunndo Fagner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gusttavo Lima</t>
+    <t xml:space="preserve">Juliana Bonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rennan Da Penha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">César Menotti e Fabiano</t>
   </si>
   <si>
     <t xml:space="preserve">Suel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliana Bonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rennan Da Penha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">César Menotti e Fabiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiee</t>
   </si>
   <si>
     <t xml:space="preserve">Jonas Esticado</t>
@@ -209,11 +209,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -241,6 +242,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -288,7 +295,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,6 +306,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -324,19 +335,19 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.35"/>
@@ -413,11 +424,11 @@
       <c r="B3" s="2" t="n">
         <v>30000000</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>10000000</v>
+      <c r="D3" s="3" t="n">
+        <v>11000000</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -445,11 +456,11 @@
       <c r="B4" s="2" t="n">
         <v>21000000</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>6700000</v>
+      <c r="D4" s="3" t="n">
+        <v>10000000</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -481,7 +492,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -513,7 +524,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4300000</v>
+        <v>6700000</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -545,7 +556,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3100000</v>
+        <v>4500000</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>37</v>
@@ -577,7 +588,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2300000</v>
+        <v>4300000</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>42</v>
@@ -609,7 +620,7 @@
         <v>46</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2000000</v>
+        <v>2300000</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>47</v>
@@ -641,7 +652,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>52</v>
@@ -695,455 +706,453 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Dash/grafico_lives_estilos_mais_escutados_data2.xlsx
+++ b/Dash/grafico_lives_estilos_mais_escutados_data2.xlsx
@@ -335,11 +335,11 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.35"/>
